--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N2">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O2">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P2">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q2">
-        <v>792.4972704445637</v>
+        <v>2118.558656679859</v>
       </c>
       <c r="R2">
-        <v>792.4972704445637</v>
+        <v>19067.02791011873</v>
       </c>
       <c r="S2">
-        <v>0.01076491063062191</v>
+        <v>0.02319956460260729</v>
       </c>
       <c r="T2">
-        <v>0.01076491063062191</v>
+        <v>0.02319956460260729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N3">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P3">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q3">
-        <v>947.4163431085452</v>
+        <v>1816.729359089562</v>
       </c>
       <c r="R3">
-        <v>947.4163431085452</v>
+        <v>16350.56423180606</v>
       </c>
       <c r="S3">
-        <v>0.01286925853742425</v>
+        <v>0.01989434184357381</v>
       </c>
       <c r="T3">
-        <v>0.01286925853742425</v>
+        <v>0.01989434184357381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N4">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O4">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P4">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q4">
-        <v>366.3021579481282</v>
+        <v>716.6737413941482</v>
       </c>
       <c r="R4">
-        <v>366.3021579481282</v>
+        <v>6450.063672547335</v>
       </c>
       <c r="S4">
-        <v>0.00497567643596242</v>
+        <v>0.007848033241865669</v>
       </c>
       <c r="T4">
-        <v>0.00497567643596242</v>
+        <v>0.007848033241865669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.415524087928739</v>
+        <v>9.452519666666667</v>
       </c>
       <c r="N5">
-        <v>9.415524087928739</v>
+        <v>28.357559</v>
       </c>
       <c r="O5">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="P5">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="Q5">
-        <v>773.5390704828519</v>
+        <v>1480.798146177624</v>
       </c>
       <c r="R5">
-        <v>773.5390704828519</v>
+        <v>13327.18331559862</v>
       </c>
       <c r="S5">
-        <v>0.01050739134832734</v>
+        <v>0.01621568142442053</v>
       </c>
       <c r="T5">
-        <v>0.01050739134832734</v>
+        <v>0.01621568142442053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N6">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O6">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P6">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q6">
-        <v>405.7925741909693</v>
+        <v>572.057511429124</v>
       </c>
       <c r="R6">
-        <v>405.7925741909693</v>
+        <v>5148.517602862115</v>
       </c>
       <c r="S6">
-        <v>0.00551209569880956</v>
+        <v>0.006264393554061604</v>
       </c>
       <c r="T6">
-        <v>0.00551209569880956</v>
+        <v>0.006264393554061604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N7">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P7">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q7">
-        <v>485.1177802605496</v>
+        <v>490.5569514557226</v>
       </c>
       <c r="R7">
-        <v>485.1177802605496</v>
+        <v>4415.012563101503</v>
       </c>
       <c r="S7">
-        <v>0.006589612033491284</v>
+        <v>0.005371910591510658</v>
       </c>
       <c r="T7">
-        <v>0.006589612033491284</v>
+        <v>0.005371910591510657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N8">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O8">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P8">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q8">
-        <v>187.5624070251934</v>
+        <v>193.5176992696733</v>
       </c>
       <c r="R8">
-        <v>187.5624070251934</v>
+        <v>1741.65929342706</v>
       </c>
       <c r="S8">
-        <v>0.002547759625920095</v>
+        <v>0.002119141875916037</v>
       </c>
       <c r="T8">
-        <v>0.002547759625920095</v>
+        <v>0.002119141875916037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.415524087928739</v>
+        <v>9.452519666666667</v>
       </c>
       <c r="N9">
-        <v>9.415524087928739</v>
+        <v>28.357559</v>
       </c>
       <c r="O9">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="P9">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="Q9">
-        <v>396.0851631355664</v>
+        <v>399.8481230436093</v>
       </c>
       <c r="R9">
-        <v>396.0851631355664</v>
+        <v>3598.633107392484</v>
       </c>
       <c r="S9">
-        <v>0.005380234787279223</v>
+        <v>0.004378591233494108</v>
       </c>
       <c r="T9">
-        <v>0.005380234787279223</v>
+        <v>0.004378591233494108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N10">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O10">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P10">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q10">
-        <v>18865.16284500193</v>
+        <v>28537.35396036875</v>
       </c>
       <c r="R10">
-        <v>18865.16284500193</v>
+        <v>256836.1856433187</v>
       </c>
       <c r="S10">
-        <v>0.2562555098071856</v>
+        <v>0.312502174392753</v>
       </c>
       <c r="T10">
-        <v>0.2562555098071856</v>
+        <v>0.312502174392753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N11">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O11">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P11">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q11">
-        <v>22552.96549442081</v>
+        <v>24471.66077137656</v>
       </c>
       <c r="R11">
-        <v>22552.96549442081</v>
+        <v>220244.946942389</v>
       </c>
       <c r="S11">
-        <v>0.3063488885794498</v>
+        <v>0.2679802483677149</v>
       </c>
       <c r="T11">
-        <v>0.3063488885794498</v>
+        <v>0.2679802483677148</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N12">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O12">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P12">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q12">
-        <v>8719.714398878104</v>
+        <v>9653.720074155653</v>
       </c>
       <c r="R12">
-        <v>8719.714398878104</v>
+        <v>86883.48066740087</v>
       </c>
       <c r="S12">
-        <v>0.1184445041379306</v>
+        <v>0.1057143741617461</v>
       </c>
       <c r="T12">
-        <v>0.1184445041379306</v>
+        <v>0.1057143741617461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.415524087928739</v>
+        <v>9.452519666666667</v>
       </c>
       <c r="N13">
-        <v>9.415524087928739</v>
+        <v>28.357559</v>
       </c>
       <c r="O13">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="P13">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="Q13">
-        <v>18413.86850890261</v>
+        <v>19946.60884563578</v>
       </c>
       <c r="R13">
-        <v>18413.86850890261</v>
+        <v>179519.479610722</v>
       </c>
       <c r="S13">
-        <v>0.2501253395499559</v>
+        <v>0.2184280520429287</v>
       </c>
       <c r="T13">
-        <v>0.2501253395499559</v>
+        <v>0.2184280520429287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N14">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O14">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P14">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q14">
-        <v>196.088428008865</v>
+        <v>318.0945114826054</v>
       </c>
       <c r="R14">
-        <v>196.088428008865</v>
+        <v>2862.850603343448</v>
       </c>
       <c r="S14">
-        <v>0.002663573089697132</v>
+        <v>0.003483337195129013</v>
       </c>
       <c r="T14">
-        <v>0.002663573089697132</v>
+        <v>0.003483337195129012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N15">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O15">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P15">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q15">
-        <v>234.4202160921607</v>
+        <v>272.7758498229903</v>
       </c>
       <c r="R15">
-        <v>234.4202160921607</v>
+        <v>2454.982648406912</v>
       </c>
       <c r="S15">
-        <v>0.003184254091913253</v>
+        <v>0.002987069029241351</v>
       </c>
       <c r="T15">
-        <v>0.003184254091913253</v>
+        <v>0.00298706902924135</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N16">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O16">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P16">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q16">
-        <v>90.63452582998883</v>
+        <v>107.6061703282978</v>
       </c>
       <c r="R16">
-        <v>90.63452582998883</v>
+        <v>968.4555329546801</v>
       </c>
       <c r="S16">
-        <v>0.001231136821532905</v>
+        <v>0.001178355997979691</v>
       </c>
       <c r="T16">
-        <v>0.001231136821532905</v>
+        <v>0.00117835599797969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.415524087928739</v>
+        <v>9.452519666666667</v>
       </c>
       <c r="N17">
-        <v>9.415524087928739</v>
+        <v>28.357559</v>
       </c>
       <c r="O17">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="P17">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="Q17">
-        <v>191.3975807756822</v>
+        <v>222.3368993950392</v>
       </c>
       <c r="R17">
-        <v>191.3975807756822</v>
+        <v>2001.032094555352</v>
       </c>
       <c r="S17">
-        <v>0.002599854824498835</v>
+        <v>0.002434730445057517</v>
       </c>
       <c r="T17">
-        <v>0.002599854824498835</v>
+        <v>0.002434730445057517</v>
       </c>
     </row>
   </sheetData>
